--- a/SAM (AGUA_and_PARSER)/vertical_energia.xlsx
+++ b/SAM (AGUA_and_PARSER)/vertical_energia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM-main (pimenta)\SAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM (AGUA_and_PARSER)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908815E-B694-4D3D-BBEF-84A56D322A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9395C-2E6F-41C9-BE49-11F1165FDEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>Valores_faturados_auditoria Valor</t>
   </si>
   <si>
-    <t>Dc_indentificador_layout</t>
-  </si>
-  <si>
     <t>File_name</t>
+  </si>
+  <si>
+    <t>Dc_identificador_layout</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
